--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf16-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,13 +88,7 @@
     <t>Fgfr2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H2">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>1.60370013444375</v>
+        <v>0.0216846399235</v>
       </c>
       <c r="R2">
-        <v>6.414800537775</v>
+        <v>0.086738559694</v>
       </c>
       <c r="S2">
-        <v>0.418762651604452</v>
+        <v>0.0165504635104867</v>
       </c>
       <c r="T2">
-        <v>0.3305860461170526</v>
+        <v>0.01161784490625944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H3">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>1.83477255695</v>
+        <v>0.233092981658</v>
       </c>
       <c r="R3">
-        <v>11.0086353417</v>
+        <v>1.398557889948</v>
       </c>
       <c r="S3">
-        <v>0.4791009269984018</v>
+        <v>0.1779045859691918</v>
       </c>
       <c r="T3">
-        <v>0.5673288217343945</v>
+        <v>0.1873241694946574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8537625</v>
+        <v>0.2355055</v>
       </c>
       <c r="H4">
-        <v>3.707525</v>
+        <v>0.471011</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2095102068231121</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.1829830426125</v>
+        <v>0.019725469669</v>
       </c>
       <c r="R4">
-        <v>0.7319321704499999</v>
+        <v>0.078901878676</v>
       </c>
       <c r="S4">
-        <v>0.04778104240144566</v>
+        <v>0.0150551573434337</v>
       </c>
       <c r="T4">
-        <v>0.0377200445797283</v>
+        <v>0.01056819242219531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +720,170 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.8537625</v>
+        <v>0.888571</v>
       </c>
       <c r="H5">
-        <v>3.707525</v>
+        <v>1.777142</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7904897931768879</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.09207700000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.184154</v>
+      </c>
+      <c r="O5">
+        <v>0.0789959771480734</v>
+      </c>
+      <c r="P5">
+        <v>0.05545240531440215</v>
+      </c>
+      <c r="Q5">
+        <v>0.08181695196700001</v>
+      </c>
+      <c r="R5">
+        <v>0.327267807868</v>
+      </c>
+      <c r="S5">
+        <v>0.06244551363758671</v>
+      </c>
+      <c r="T5">
+        <v>0.04383456040814272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.888571</v>
+      </c>
+      <c r="H6">
+        <v>1.777142</v>
+      </c>
+      <c r="I6">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="J6">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.336872</v>
-      </c>
-      <c r="O5">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P5">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q5">
-        <v>0.2081602269666667</v>
-      </c>
-      <c r="R5">
-        <v>1.2489613618</v>
-      </c>
-      <c r="S5">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="T5">
-        <v>0.06436508756882468</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9897559999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.969268</v>
+      </c>
+      <c r="O6">
+        <v>0.8491451975864605</v>
+      </c>
+      <c r="P6">
+        <v>0.8941052196698643</v>
+      </c>
+      <c r="Q6">
+        <v>0.8794684786759999</v>
+      </c>
+      <c r="R6">
+        <v>5.276810872055999</v>
+      </c>
+      <c r="S6">
+        <v>0.6712406116172688</v>
+      </c>
+      <c r="T6">
+        <v>0.706781050175207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.888571</v>
+      </c>
+      <c r="H7">
+        <v>1.777142</v>
+      </c>
+      <c r="I7">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="J7">
+        <v>0.7904897931768879</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.083758</v>
+      </c>
+      <c r="N7">
+        <v>0.167516</v>
+      </c>
+      <c r="O7">
+        <v>0.07185882526546619</v>
+      </c>
+      <c r="P7">
+        <v>0.05044237501573352</v>
+      </c>
+      <c r="Q7">
+        <v>0.074424929818</v>
+      </c>
+      <c r="R7">
+        <v>0.297699719272</v>
+      </c>
+      <c r="S7">
+        <v>0.0568036679220325</v>
+      </c>
+      <c r="T7">
+        <v>0.03987418259353821</v>
       </c>
     </row>
   </sheetData>
